--- a/biology/Botanique/Oleeae/Oleeae.xlsx
+++ b/biology/Botanique/Oleeae/Oleeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Oleeae sont une tribu de plantes dicotylédones de la famille des Oleaceae qui regroupe 17 genres[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Oleeae sont une tribu de plantes dicotylédones de la famille des Oleaceae qui regroupe 17 genres.
 Une analyse cladistique de séquences d'ADN portant sur deux locus non codants de chloroplastes publiée en 2010 a conduit à réviser la classification de la famille des Oleaceae en abandonnant la subdivision en deux sous-familles (Jasminoideae et Oleoideae) au profit d'une subdivisions en cinq tribus : Myxopyreae, Fontanesieae, Forsythieae,  Jasmineae et Oleeae.
-La tribu des Oleeae (qui correspond à l'ancienne sous-famille des Oleoideae) a été reconnue comme monophylétique et subdivisée en quatre sous-tribus : Ligustrinae (Syringa et Ligustrum), Schreberinae (Schrebera et Comoranthus), Fraxininae (Fraxinus) et Oleinae (12 genres drupacés)[1].
+La tribu des Oleeae (qui correspond à l'ancienne sous-famille des Oleoideae) a été reconnue comme monophylétique et subdivisée en quatre sous-tribus : Ligustrinae (Syringa et Ligustrum), Schreberinae (Schrebera et Comoranthus), Fraxininae (Fraxinus) et Oleinae (12 genres drupacés).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des sous-tribus et des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Eva Wallander &amp; Victor A. Albert[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Eva Wallander &amp; Victor A. Albert :
 sous-tribu des Fraxininae
 Fraxinus L. – Frênes
 sous-tribu des Ligustrinae
